--- a/Data_File.xlsx
+++ b/Data_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanaynagar/eclipse-workspace/M5/cheesehacks2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA5F2921-428A-4F43-B01B-4F035B64CBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B18212F-057B-744A-A12D-6BA80D46A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{74B8D21F-D9DD-164A-A004-B531B66352DD}"/>
   </bookViews>
@@ -31,6 +31,65 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>TA_Names</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Aleksander Skenderi</t>
+  </si>
+  <si>
+    <t>MATH 221</t>
+  </si>
+  <si>
+    <t>He's good at teaching but he is new so he doesn’t quite know how to control the class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksander Skenderi </t>
+  </si>
+  <si>
+    <t>Very strict in marking discussion quizzes.</t>
+  </si>
+  <si>
+    <t>KINES 100</t>
+  </si>
+  <si>
+    <t>Ronnie Carda</t>
+  </si>
+  <si>
+    <t>Does not answer any questions and expects us to know everything in the discussion section.</t>
+  </si>
+  <si>
+    <t>Alecsander Ian Michael</t>
+  </si>
+  <si>
+    <t>PHILOS 101</t>
+  </si>
+  <si>
+    <t>He's cringey in leading discussion and strays away from the actual course content a lot.</t>
+  </si>
+  <si>
+    <t>Caroline Taft</t>
+  </si>
+  <si>
+    <t>CS 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not always give clear answers to doubts. </t>
+  </si>
+  <si>
+    <t>Tanisha Ghai</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +439,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC395C20-420A-5647-96E8-3669D8135E9C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>